--- a/medicine/Psychotrope/San_Francisco_(cocktail)/San_Francisco_(cocktail).xlsx
+++ b/medicine/Psychotrope/San_Francisco_(cocktail)/San_Francisco_(cocktail).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le San Francisco est un cocktail fruité à base de vodka et de triple sec, servi dans plusieurs bars à travers le monde.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aujourd'hui disponible dans beaucoup de pays, son origine est inconnue, mais n'est certainement pas de la ville américaine de San Francisco.
 </t>
@@ -543,7 +557,9 @@
           <t>Ingrédients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2 de mesure de vodka.
 1/2 de mesure de triple sec.
@@ -578,9 +594,11 @@
           <t>Recette</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mélanger au shaker tous les ingrédients avec des glaçons, puis filtrer et servir frais dans un verre Collins. Servir avec une tranche d'ananas[1]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mélanger au shaker tous les ingrédients avec des glaçons, puis filtrer et servir frais dans un verre Collins. Servir avec une tranche d'ananas. 
 </t>
         </is>
       </c>
